--- a/Analysis/stereotestaconanalisi.xlsx
+++ b/Analysis/stereotestaconanalisi.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\3d4amb_documents\ricerca_nsarticoli\SLR Stereotest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\3D4AMB\3d4amb_documents\ricerca_nsarticoli\SLR Stereotest\Analisi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A926D06-EE11-4D66-9396-55FC44E81ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D32F6E-09A1-4E44-BACC-D4810EC54C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE82EBF-09DF-4859-B5E4-F5CC4B12B312}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE82EBF-09DF-4859-B5E4-F5CC4B12B312}"/>
   </bookViews>
   <sheets>
     <sheet name="articoli" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">articoli!$A$1:$Q$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">articoli!$A$1:$P$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="260">
   <si>
     <t>A New 3D Monitor–Based Random-Dot Stereotest for Children</t>
   </si>
@@ -926,6 +926,25 @@
   </si>
   <si>
     <t>Passive</t>
+  </si>
+  <si>
+    <t>Assessing stereo blindness and stereo acuity on digital displays</t>
+  </si>
+  <si>
+    <t>GADIA2014206</t>
+  </si>
+  <si>
+    <t>160, 100, 63, 50, 40, 32, 26, 20, 16, 12.5</t>
+  </si>
+  <si>
+    <t>Random Dot 2 Stereo Acuity Test</t>
+  </si>
+  <si>
+    <t>42 aged from 21 to 68</t>
+  </si>
+  <si>
+    <t>All of them have normal or corrected-to-normal
+vision.</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1015,6 +1034,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1349,7 +1371,9 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1369,8 +1393,8 @@
     <col min="13" max="13" width="45.7109375" style="6" customWidth="1"/>
     <col min="14" max="14" width="32.7109375" style="6" customWidth="1"/>
     <col min="15" max="15" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="45.7109375" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="45.7109375" style="6"/>
+    <col min="16" max="16" width="45.7109375" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="45.7109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1466,7 +1490,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1511,7 +1535,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
@@ -1607,7 +1631,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="5" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -1657,7 +1681,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -1702,7 +1726,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
@@ -1750,7 +1774,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" s="5" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -1798,7 +1822,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1846,7 +1870,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1894,7 +1918,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1942,7 +1966,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
@@ -1985,7 +2009,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="5" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -2035,7 +2059,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="5" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>71</v>
       </c>
@@ -2083,7 +2107,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2131,7 +2155,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>69</v>
       </c>
@@ -2179,7 +2203,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2229,7 +2253,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -2326,7 +2350,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="5" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -2424,7 +2448,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -2474,7 +2498,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2620,7 +2644,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="5" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2716,7 +2740,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="5" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -2766,12 +2790,53 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="7"/>
+    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>259</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q29" xr:uid="{642CA66A-7351-4E50-BF39-9DAC76B5200B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q29">
+  <autoFilter ref="A1:P29" xr:uid="{642CA66A-7351-4E50-BF39-9DAC76B5200B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P29">
       <sortCondition ref="B1:B29"/>
     </sortState>
   </autoFilter>

--- a/Analysis/stereotestaconanalisi.xlsx
+++ b/Analysis/stereotestaconanalisi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\3D4AMB\3d4amb_documents\ricerca_nsarticoli\SLR Stereotest\Analisi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\3D4AMB\SLRStereoacuityTest\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D32F6E-09A1-4E44-BACC-D4810EC54C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE3B240-3D04-465A-8A74-6ABAC92837BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE82EBF-09DF-4859-B5E4-F5CC4B12B312}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE82EBF-09DF-4859-B5E4-F5CC4B12B312}"/>
   </bookViews>
   <sheets>
     <sheet name="articoli" sheetId="1" r:id="rId1"/>
@@ -704,9 +704,6 @@
     <t>Compared with non digital test</t>
   </si>
   <si>
-    <t>Monocluar clues?</t>
-  </si>
-  <si>
     <t>YES 
 The stimuli can be seen with each eye alone, monocular depth cues are sufficiently masked. 
 To mask monocular cues the bar is shifted randomly to the right or left</t>
@@ -945,6 +942,9 @@
   <si>
     <t>All of them have normal or corrected-to-normal
 vision.</t>
+  </si>
+  <si>
+    <t>Monocluar cues?</t>
   </si>
 </sst>
 </file>
@@ -1370,10 +1370,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA54721-9A19-46D4-9C93-AC14FD4ABD12}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1402,19 +1402,19 @@
         <v>42</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="E1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>43</v>
@@ -1435,16 +1435,16 @@
         <v>197</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
@@ -1576,13 +1576,13 @@
         <v>195</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,7 +1596,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>102</v>
@@ -1622,10 +1622,10 @@
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>96</v>
@@ -1642,7 +1642,7 @@
         <v>80</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>102</v>
@@ -1672,13 +1672,13 @@
         <v>94</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -1720,10 +1720,10 @@
         <v>97</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -1767,10 +1767,10 @@
         <v>196</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -1785,7 +1785,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>102</v>
@@ -1813,13 +1813,13 @@
         <v>94</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1833,7 +1833,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>102</v>
@@ -1863,10 +1863,10 @@
         <v>94</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -1912,7 +1912,7 @@
         <v>83</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>84</v>
@@ -1929,7 +1929,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>102</v>
@@ -1957,13 +1957,13 @@
         <v>94</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -2003,10 +2003,10 @@
         <v>94</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="5" customFormat="1" ht="210" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>102</v>
@@ -2050,13 +2050,13 @@
         <v>94</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2070,7 +2070,7 @@
         <v>72</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>102</v>
@@ -2098,13 +2098,13 @@
         <v>94</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
@@ -2146,10 +2146,10 @@
         <v>195</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>86</v>
@@ -2194,13 +2194,13 @@
         <v>94</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -2214,7 +2214,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>102</v>
@@ -2244,13 +2244,13 @@
         <v>193</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -2294,13 +2294,13 @@
         <v>97</v>
       </c>
       <c r="N19" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P19" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="5" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -2344,10 +2344,10 @@
         <v>94</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -2391,13 +2391,13 @@
         <v>94</v>
       </c>
       <c r="N21" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2411,7 +2411,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>106</v>
@@ -2442,10 +2442,10 @@
         <v>20</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2459,7 +2459,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>102</v>
@@ -2489,10 +2489,10 @@
         <v>94</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>91</v>
@@ -2509,7 +2509,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
@@ -2539,10 +2539,10 @@
         <v>94</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>87</v>
@@ -2559,7 +2559,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>102</v>
@@ -2587,13 +2587,13 @@
         <v>98</v>
       </c>
       <c r="N25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,7 @@
         <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>102</v>
@@ -2635,10 +2635,10 @@
         <v>94</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>100</v>
@@ -2683,10 +2683,10 @@
         <v>97</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>101</v>
@@ -2703,7 +2703,7 @@
         <v>37</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>102</v>
@@ -2728,13 +2728,13 @@
         <v>94</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>88</v>
@@ -2751,7 +2751,7 @@
         <v>46</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>102</v>
@@ -2781,10 +2781,10 @@
         <v>194</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>95</v>
@@ -2792,13 +2792,13 @@
     </row>
     <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="D30" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>102</v>
@@ -2813,10 +2813,10 @@
         <v>176</v>
       </c>
       <c r="J30" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>102</v>
@@ -2825,13 +2825,13 @@
         <v>94</v>
       </c>
       <c r="N30" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="P30" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
